--- a/data/trans_camb/P26-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P26-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P26-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P26-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,97</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-8,27; 9,33</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-23,35; -7,13</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-12,82; 4,99</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-29,21; -12,87</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,94; 4,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,09; -12,56</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-45,45%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-8,43%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-49,32%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,35%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-22,16; 32,46</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-61,29; -21,95</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-26,85; 13,56</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-60,97; -33,94</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,55; 13,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,29; -34,6</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,88</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,47</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 13,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,45; 3,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,36; -9,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 13,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,47; 5,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,92; -15,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,94; 11,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; 2,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,25; -14,29</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,65%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,07; 60,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,75; 14,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,23; -41,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,34; 43,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,63; 17,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,51; -51,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,99; 42,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,45; 9,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,83; -51,99</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,74</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,03</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 15,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,03; -1,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,82; -14,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,13; 5,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,58; -18,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,89; -16,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 8,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,53; -11,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,56; -17,33</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,06%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,16%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,18; 68,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,42; -8,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,57; -62,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,04; 16,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,81; -52,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,06; -47,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; 28,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,92; -39,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,9; -57,47</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,15</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,99</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-30,04</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,33</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 11,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,78; 7,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,94; -6,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,4; -0,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,91; -5,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,63; -23,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,82; 3,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,41; -1,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,35; -16,92</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,8%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,83%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,59%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,28%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,08%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; 45,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,49; 28,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,98; -22,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,43; -1,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,47; -14,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,88; -59,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,91; 10,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,14; -4,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,74; -50,98</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,94</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,78</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,57</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,92</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,84</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,7; 14,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,85; 8,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,67; -16,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 19,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,9; -0,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,66; -16,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 14,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,2; 1,33</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,79; -18,46</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,26%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,61%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,19%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,21%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,75%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,57%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,22%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,17; 64,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,8; 37,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,96; -65,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 75,57</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,9; 0,04</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,29; -66,94</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 54,58</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,19; 6,13</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,78; -70,82</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,17</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,78</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,59</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,34</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,27; 9,6</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,46; 3,97</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,57; -11,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,95; 12,67</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,31; -0,87</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,95; -20,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 9,18</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,16; -1,43</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,39; -17,54</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,62%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,74%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,79%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,74%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,08%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,05; 40,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,18; 17,08</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,12; -43,55</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,17; 37,34</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,78; -2,55</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,45; -57,37</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,86; 29,94</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,44; -4,32</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,59; -56,21</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,98</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,15</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,25</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,6</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 9,46</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,86; 2,45</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,21; -5,38</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 9,53</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,49; -2,29</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,66; -12,51</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 7,67</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,75; -2,14</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,22; -10,39</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,32%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,11%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,21%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,48%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,83%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,37%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,42; 34,49</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,76; 8,93</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,98; -18,59</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; 26,29</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,83; -6,47</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,85; -34,2</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 23,24</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,87; -6,56</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,14; -31,88</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,24</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,38</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,01</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,42</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,75</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,45</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 8,27</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,86; -0,33</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,95; 7,31</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; 7,17</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,33; -9,04</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,7; -24,72</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 6,13</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,95; -6,48</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,52; -11,8</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,39%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,44%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,54%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,24%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,83%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,0%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,82; 32,34</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,37; -1,25</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,05; 32,27</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,6; 22,15</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,92; -28,52</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,89; -76,47</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,67; 20,39</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,79; -21,77</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,13; -28,59</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,0</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,79</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,9</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 6,52</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; -1,01</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,54; -10,77</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 3,97</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,87; -8,28</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,06; -21,57</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,24; 4,56</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; -5,07</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,41; -17,3</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,91%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,87%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,87%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,16%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,94%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,52%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,5; 23,36</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,62; -3,71</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,33; -37,79</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,72; 10,95</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,48; -22,9</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,48; -60,29</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,76; 14,33</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,02; -15,89</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,12; -52,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P26-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P26-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-15,24</t>
+          <t>-14,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-21,0</t>
+          <t>-20,14</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-17,97</t>
+          <t>-17,29</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; 13,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,35; -7,13</t>
+          <t>-22,68; -5,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,42; 9,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,21; -12,87</t>
+          <t>-28,46; -11,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 8,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-24,09; -12,56</t>
+          <t>-23,61; -11,4</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-45,45%</t>
+          <t>-43,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-49,32%</t>
+          <t>-47,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-47,35%</t>
+          <t>-45,57%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,17; 45,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-61,29; -21,95</t>
+          <t>-60,63; -17,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,73; 24,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,97; -33,94</t>
+          <t>-59,99; -30,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,26; 24,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-57,29; -34,6</t>
+          <t>-56,48; -31,45</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-16,18</t>
+          <t>-15,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-20,88</t>
+          <t>-20,89</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-18,47</t>
+          <t>-18,17</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,36; -9,44</t>
+          <t>-20,89; -8,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,92; -15,53</t>
+          <t>-26,02; -15,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-22,25; -14,29</t>
+          <t>-22,03; -13,78</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-63,69%</t>
+          <t>-60,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-62,16%</t>
+          <t>-62,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-62,65%</t>
+          <t>-61,63%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-77,23; -41,1</t>
+          <t>-75,58; -35,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,51; -51,54</t>
+          <t>-71,51; -51,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-70,83; -51,99</t>
+          <t>-70,35; -49,92</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-20,35</t>
+          <t>-20,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-22,74</t>
+          <t>-22,67</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-21,31</t>
+          <t>-21,44</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,82; -14,32</t>
+          <t>-25,93; -14,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,89; -16,36</t>
+          <t>-29,84; -16,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-25,56; -17,33</t>
+          <t>-25,66; -17,46</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-75,06%</t>
+          <t>-75,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-59,54%</t>
+          <t>-59,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-65,16%</t>
+          <t>-65,56%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-84,57; -62,19</t>
+          <t>-84,93; -62,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,06; -47,72</t>
+          <t>-69,85; -47,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-72,9; -57,47</t>
+          <t>-73,23; -57,94</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-14,27</t>
+          <t>-13,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,15</t>
+          <t>-12,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-30,04</t>
+          <t>-32,54</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-22,33</t>
+          <t>-23,84</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 11,11</t>
+          <t>-7,04; 7,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,94; -6,2</t>
+          <t>-20,81; -5,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,4; -0,56</t>
+          <t>-19,23; -5,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-36,63; -23,54</t>
+          <t>-40,39; -26,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 3,33</t>
+          <t>-11,18; -1,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-27,35; -16,92</t>
+          <t>-29,19; -17,99</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-49,8%</t>
+          <t>-48,75%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,97%</t>
+          <t>-29,92%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-71,28%</t>
+          <t>-77,22%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,59%</t>
+          <t>-17,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-63,08%</t>
+          <t>-67,37%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 45,83</t>
+          <t>-21,85; 29,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,98; -22,09</t>
+          <t>-67,61; -19,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,43; -1,95</t>
+          <t>-42,63; -14,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-78,88; -59,19</t>
+          <t>-86,66; -65,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 10,11</t>
+          <t>-29,35; -3,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-71,74; -50,98</t>
+          <t>-78,42; -55,12</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-23,94</t>
+          <t>-24,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-23,92</t>
+          <t>-23,86</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-23,84</t>
+          <t>-23,85</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-31,67; -16,82</t>
+          <t>-31,72; -16,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-31,66; -16,32</t>
+          <t>-31,54; -16,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-28,79; -18,46</t>
+          <t>-28,75; -18,43</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-84,61%</t>
+          <t>-84,85%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-78,75%</t>
+          <t>-78,57%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-81,22%</t>
+          <t>-81,24%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-92,96; -65,29</t>
+          <t>-93,15; -67,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-86,29; -66,94</t>
+          <t>-86,15; -66,57</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-86,78; -70,82</t>
+          <t>-86,78; -71,29</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-17,17</t>
+          <t>-17,15</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-27,59</t>
+          <t>-27,68</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-22,34</t>
+          <t>-22,38</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-24,57; -11,15</t>
+          <t>-24,54; -11,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-33,95; -20,02</t>
+          <t>-34,04; -20,17</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-27,39; -17,54</t>
+          <t>-27,39; -17,41</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-61,0%</t>
+          <t>-60,92%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-69,79%</t>
+          <t>-70,03%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-66,08%</t>
+          <t>-66,21%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-74,12; -43,55</t>
+          <t>-74,19; -43,35</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-78,45; -57,37</t>
+          <t>-78,46; -57,57</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-73,59; -56,21</t>
+          <t>-73,87; -56,25</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-10,98</t>
+          <t>-11,05</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-18,25</t>
+          <t>-20,72</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-14,6</t>
+          <t>-16,06</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-16,21; -5,38</t>
+          <t>-16,3; -5,14</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-26,66; -12,51</t>
+          <t>-32,09; -13,33</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-20,22; -10,39</t>
+          <t>-23,82; -11,28</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-36,11%</t>
+          <t>-36,31%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-47,48%</t>
+          <t>-53,93%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-42,37%</t>
+          <t>-46,61%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-48,98; -18,59</t>
+          <t>-49,33; -17,97</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-67,85; -34,2</t>
+          <t>-78,39; -34,92</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-57,14; -31,88</t>
+          <t>-66,31; -34,12</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-16,38</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-28,42</t>
+          <t>-28,48</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-22,45</t>
+          <t>-10,09</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 7,31</t>
+          <t>-23,75; 46,74</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-32,7; -24,72</t>
+          <t>-32,76; -24,73</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-26,52; -11,8</t>
+          <t>-26,33; 25,3</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-57,44%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-82,24%</t>
+          <t>-82,41%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-71,0%</t>
+          <t>-31,9%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-82,05; 32,27</t>
+          <t>-81,95; 179,19</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-86,89; -76,47</t>
+          <t>-87,11; -77,02</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-82,13; -28,59</t>
+          <t>-82,15; 80,62</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-16,0</t>
+          <t>-10,14</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-23,79</t>
+          <t>-24,21</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-19,9</t>
+          <t>-17,28</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-18,54; -10,77</t>
+          <t>-17,75; 9,94</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-26,06; -21,57</t>
+          <t>-26,97; -21,78</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-21,41; -17,3</t>
+          <t>-21,02; -5,54</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-55,87%</t>
+          <t>-35,41%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-64,16%</t>
+          <t>-65,27%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-60,52%</t>
+          <t>-52,56%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-63,33; -37,79</t>
+          <t>-61,2; 36,1</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-68,48; -60,29</t>
+          <t>-71,67; -60,58</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-64,12; -52,3</t>
+          <t>-63,81; -17,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P26-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P26-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 13,36</t>
+          <t>-3,69; 12,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 9,33</t>
+          <t>-8,03; 9,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,68; -5,72</t>
+          <t>-22,83; -6,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 9,34</t>
+          <t>-9,44; 9,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 4,99</t>
+          <t>-11,54; 5,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,46; -11,35</t>
+          <t>-28,2; -11,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 8,34</t>
+          <t>-3,59; 9,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 4,76</t>
+          <t>-7,81; 5,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,61; -11,4</t>
+          <t>-22,96; -10,84</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 45,66</t>
+          <t>-9,58; 43,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,16; 32,46</t>
+          <t>-21,26; 33,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-60,63; -17,72</t>
+          <t>-61,19; -19,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 24,31</t>
+          <t>-20,09; 23,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 13,56</t>
+          <t>-25,06; 14,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,99; -30,44</t>
+          <t>-58,89; -29,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 24,06</t>
+          <t>-8,93; 27,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 13,72</t>
+          <t>-19,11; 15,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-56,48; -31,45</t>
+          <t>-56,53; -31,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 13,31</t>
+          <t>1,01; 13,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 3,26</t>
+          <t>-7,97; 3,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,89; -8,23</t>
+          <t>-21,18; -8,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 13,29</t>
+          <t>1,21; 13,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 5,43</t>
+          <t>-6,48; 5,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,02; -15,58</t>
+          <t>-26,03; -15,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 11,67</t>
+          <t>3,06; 11,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 2,7</t>
+          <t>-5,46; 3,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-22,03; -13,78</t>
+          <t>-21,83; -14,2</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 60,78</t>
+          <t>4,21; 59,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,75; 14,63</t>
+          <t>-28,45; 14,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-75,58; -35,74</t>
+          <t>-76,32; -36,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 43,67</t>
+          <t>3,13; 44,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 17,81</t>
+          <t>-18,04; 16,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,51; -51,46</t>
+          <t>-70,26; -51,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,99; 42,69</t>
+          <t>9,7; 42,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 9,87</t>
+          <t>-17,26; 11,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-70,35; -49,92</t>
+          <t>-70,2; -51,2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 15,52</t>
+          <t>0,95; 15,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,03; -1,75</t>
+          <t>-16,02; -2,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,93; -14,47</t>
+          <t>-26,85; -14,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 5,51</t>
+          <t>-10,73; 5,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,58; -18,31</t>
+          <t>-31,48; -18,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,84; -16,3</t>
+          <t>-29,1; -16,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 8,79</t>
+          <t>-2,81; 8,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-21,53; -11,89</t>
+          <t>-21,47; -11,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-25,66; -17,46</t>
+          <t>-26,02; -16,77</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,18; 68,59</t>
+          <t>2,55; 68,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,42; -8,7</t>
+          <t>-51,99; -8,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-84,93; -62,96</t>
+          <t>-84,82; -61,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 16,53</t>
+          <t>-25,93; 16,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-75,81; -52,55</t>
+          <t>-74,53; -52,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,85; -47,46</t>
+          <t>-69,69; -46,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 28,83</t>
+          <t>-7,87; 28,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,92; -39,61</t>
+          <t>-61,16; -40,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-73,23; -57,94</t>
+          <t>-73,31; -56,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 7,41</t>
+          <t>-6,75; 7,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 7,34</t>
+          <t>-6,95; 7,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,81; -5,58</t>
+          <t>-21,18; -5,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-19,23; -5,81</t>
+          <t>-19,89; -5,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,91; -5,72</t>
+          <t>-20,7; -6,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-40,39; -26,46</t>
+          <t>-39,97; -25,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,18; -1,16</t>
+          <t>-11,1; -1,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,41; -1,61</t>
+          <t>-11,73; -1,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-29,19; -17,99</t>
+          <t>-28,64; -18,72</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 29,03</t>
+          <t>-21,04; 28,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 28,23</t>
+          <t>-22,06; 27,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,61; -19,09</t>
+          <t>-67,37; -19,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,63; -14,85</t>
+          <t>-43,82; -15,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,47; -14,53</t>
+          <t>-44,95; -15,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-86,66; -65,97</t>
+          <t>-87,72; -67,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,35; -3,08</t>
+          <t>-29,63; -3,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-30,14; -4,25</t>
+          <t>-30,84; -4,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-78,42; -55,12</t>
+          <t>-77,3; -56,21</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 14,82</t>
+          <t>-4,01; 15,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 8,57</t>
+          <t>-9,87; 8,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-31,72; -16,94</t>
+          <t>-31,09; -15,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 19,2</t>
+          <t>0,44; 18,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,9; -0,35</t>
+          <t>-17,89; -0,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-31,54; -16,23</t>
+          <t>-32,16; -16,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,41; 14,13</t>
+          <t>0,45; 14,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 1,33</t>
+          <t>-11,58; 1,21</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-28,75; -18,43</t>
+          <t>-28,98; -18,83</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 64,61</t>
+          <t>-12,26; 63,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 37,84</t>
+          <t>-30,46; 35,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-93,15; -67,6</t>
+          <t>-93,33; -64,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 75,57</t>
+          <t>1,25; 73,77</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-48,9; 0,04</t>
+          <t>-49,12; 0,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-86,15; -66,57</t>
+          <t>-86,56; -67,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,91; 54,58</t>
+          <t>0,93; 54,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-34,19; 6,13</t>
+          <t>-35,22; 4,72</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-86,78; -71,29</t>
+          <t>-87,41; -72,13</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 9,6</t>
+          <t>-6,17; 10,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 3,97</t>
+          <t>-11,98; 4,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-24,54; -11,1</t>
+          <t>-23,71; -10,21</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 12,67</t>
+          <t>-4,52; 13,05</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,31; -0,87</t>
+          <t>-17,77; -1,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-34,04; -20,17</t>
+          <t>-35,17; -20,8</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 9,18</t>
+          <t>-2,79; 8,75</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-13,16; -1,43</t>
+          <t>-12,74; -1,48</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-27,39; -17,41</t>
+          <t>-27,87; -17,44</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 40,67</t>
+          <t>-19,2; 45,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-38,18; 17,08</t>
+          <t>-38,3; 16,78</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-74,19; -43,35</t>
+          <t>-73,22; -41,98</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 37,34</t>
+          <t>-10,36; 38,79</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-41,78; -2,55</t>
+          <t>-41,79; -3,76</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-78,46; -57,57</t>
+          <t>-79,63; -58,11</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 29,94</t>
+          <t>-7,42; 28,76</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-35,44; -4,32</t>
+          <t>-35,39; -5,07</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-73,87; -56,25</t>
+          <t>-74,06; -56,11</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 9,46</t>
+          <t>-1,73; 9,06</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 2,45</t>
+          <t>-9,18; 2,02</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-16,3; -5,14</t>
+          <t>-16,49; -5,27</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 9,53</t>
+          <t>-2,16; 9,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-13,49; -2,29</t>
+          <t>-13,29; -2,38</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-32,09; -13,33</t>
+          <t>-31,72; -13,1</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 7,67</t>
+          <t>-0,01; 7,63</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -2,14</t>
+          <t>-9,81; -1,85</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-23,82; -11,28</t>
+          <t>-23,53; -11,26</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 34,49</t>
+          <t>-5,43; 33,25</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 8,93</t>
+          <t>-27,53; 6,98</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-49,33; -17,97</t>
+          <t>-49,67; -18,41</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 26,29</t>
+          <t>-5,22; 26,68</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-32,83; -6,47</t>
+          <t>-32,25; -6,33</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-78,39; -34,92</t>
+          <t>-78,83; -35,65</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 23,24</t>
+          <t>-0,08; 23,33</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-26,87; -6,56</t>
+          <t>-26,92; -5,56</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-66,31; -34,12</t>
+          <t>-65,89; -34,15</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 8,27</t>
+          <t>-2,17; 7,43</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-9,86; -0,33</t>
+          <t>-10,55; -0,88</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 46,74</t>
+          <t>-23,81; 38,68</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 7,17</t>
+          <t>-3,04; 6,85</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-18,33; -9,04</t>
+          <t>-18,78; -9,51</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-32,76; -24,73</t>
+          <t>-32,28; -24,24</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 6,13</t>
+          <t>-1,24; 5,94</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-12,95; -6,48</t>
+          <t>-13,07; -6,43</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 25,3</t>
+          <t>-26,73; 17,52</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 32,34</t>
+          <t>-6,73; 28,72</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-31,37; -1,25</t>
+          <t>-33,88; -3,28</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-81,95; 179,19</t>
+          <t>-81,18; 143,61</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 22,15</t>
+          <t>-8,32; 21,48</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-50,92; -28,52</t>
+          <t>-50,31; -29,5</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-87,11; -77,02</t>
+          <t>-86,69; -75,86</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 20,39</t>
+          <t>-3,5; 19,72</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-38,79; -21,77</t>
+          <t>-39,12; -22,06</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-82,15; 80,62</t>
+          <t>-82,79; 58,34</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,52</t>
+          <t>2,08; 6,67</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-5,51; -1,01</t>
+          <t>-5,71; -0,96</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 9,94</t>
+          <t>-17,35; 10,12</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,97</t>
+          <t>-0,91; 4,14</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -8,28</t>
+          <t>-12,79; -8,17</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-26,97; -21,78</t>
+          <t>-26,88; -21,91</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,56</t>
+          <t>1,28; 4,59</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -5,07</t>
+          <t>-8,53; -5,36</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-21,02; -5,54</t>
+          <t>-21,01; -6,08</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>6,5; 23,36</t>
+          <t>6,98; 24,33</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-18,62; -3,71</t>
+          <t>-19,11; -3,51</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-61,2; 36,1</t>
+          <t>-59,93; 35,66</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 10,95</t>
+          <t>-2,37; 11,53</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-33,48; -22,9</t>
+          <t>-33,19; -22,59</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-71,67; -60,58</t>
+          <t>-71,9; -61,01</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>3,76; 14,33</t>
+          <t>3,78; 14,43</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-25,02; -15,89</t>
+          <t>-25,33; -16,61</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-63,81; -17,0</t>
+          <t>-63,74; -18,62</t>
         </is>
       </c>
     </row>
